--- a/survey/scripts/dados_likert_fr.xlsx
+++ b/survey/scripts/dados_likert_fr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr hidePivotFieldList="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="D104" sheetId="1" state="visible" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>DQ05</t>
+    <t>DQ06</t>
   </si>
   <si>
     <t>DQ07</t>
@@ -95,34 +95,34 @@
     <t>DQ08</t>
   </si>
   <si>
-    <t xml:space="preserve">1-3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 1 year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you use diagrams in your software projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you create diagrams in your software projects?</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>Sporadically</t>
-  </si>
-  <si>
-    <t>Often</t>
+    <t xml:space="preserve">1-3 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus de 5 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-5 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moins de 1 an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d'expérience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence utilisez-vous des diagrammes dans vos projets logiciels?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quelle fréquence créez-vous des diagrammes dans vos projets logiciels?</t>
+  </si>
+  <si>
+    <t>Jamais</t>
+  </si>
+  <si>
+    <t>Sporadiquement</t>
+  </si>
+  <si>
+    <t>Souvent</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,6 +174,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1518,7 +1521,7 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1532,7 +1535,7 @@
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1">
@@ -1546,7 +1549,7 @@
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1">
@@ -1560,7 +1563,7 @@
       <c r="A4" s="1">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1">
@@ -1574,7 +1577,7 @@
       <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1">
@@ -1588,7 +1591,7 @@
       <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1">
@@ -1602,7 +1605,7 @@
       <c r="A7" s="1">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1">
@@ -1611,12 +1614,13 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="14.65">
       <c r="A8" s="1">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1">
@@ -1630,7 +1634,7 @@
       <c r="A9" s="1">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1">
@@ -1644,7 +1648,7 @@
       <c r="A10" s="1">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="1">
@@ -1658,7 +1662,7 @@
       <c r="A11" s="1">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="1">
@@ -1672,7 +1676,7 @@
       <c r="A12" s="1">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
@@ -1686,7 +1690,7 @@
       <c r="A13" s="1">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1">
@@ -1700,7 +1704,7 @@
       <c r="A14" s="1">
         <v>60</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1">
@@ -1714,7 +1718,7 @@
       <c r="A15" s="1">
         <v>62</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="1">
@@ -1728,7 +1732,7 @@
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1">
@@ -1742,7 +1746,7 @@
       <c r="A17" s="1">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1">
@@ -1756,21 +1760,21 @@
       <c r="A18" s="1">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="14.65">
       <c r="A19" s="1">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="1">
@@ -1784,7 +1788,7 @@
       <c r="A20" s="1">
         <v>67</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1">
@@ -1798,7 +1802,7 @@
       <c r="A21" s="1">
         <v>68</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1">
@@ -1812,21 +1816,21 @@
       <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="14.65">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="1">
@@ -1840,7 +1844,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1">
@@ -1854,7 +1858,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
@@ -1868,7 +1872,7 @@
       <c r="A26" s="1">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
@@ -1882,7 +1886,7 @@
       <c r="A27" s="1">
         <v>44</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1">
@@ -1896,7 +1900,7 @@
       <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
@@ -1910,7 +1914,7 @@
       <c r="A29" s="1">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
@@ -1924,7 +1928,7 @@
       <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="1">
@@ -1938,35 +1942,35 @@
       <c r="A31" s="1">
         <v>21</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="14.65">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.65">
       <c r="A33" s="1">
         <v>55</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
@@ -1980,7 +1984,7 @@
       <c r="A34" s="1">
         <v>56</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="1">
@@ -1994,7 +1998,7 @@
       <c r="A35" s="1">
         <v>64</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="1">
@@ -2045,7 +2049,7 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2053,7 +2057,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2081,7 +2085,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultRowHeight="12.800000000000001" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="257" width="11.515599999999999"/>
+    <col customWidth="1" min="1" max="1" width="11.515599999999999"/>
+    <col customWidth="1" min="2" max="2" width="18.421875"/>
+    <col customWidth="1" min="3" max="257" width="11.515599999999999"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001">
@@ -2101,7 +2107,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
